--- a/Data/Transitions/19541973Translation.xlsx
+++ b/Data/Transitions/19541973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="702">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -4595,7 +4592,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4606,7 +4603,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4628,7 +4625,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4639,7 +4636,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4650,7 +4647,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4661,7 +4658,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4672,7 +4669,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4716,7 +4713,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4782,7 +4779,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4804,7 +4801,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4826,7 +4823,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4837,7 +4834,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4859,7 +4856,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4936,7 +4933,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4958,7 +4955,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4969,7 +4966,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4980,7 +4977,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5002,7 +4999,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5046,7 +5043,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5057,7 +5054,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5068,7 +5065,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5079,7 +5076,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5090,7 +5087,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5112,7 +5109,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5211,7 +5208,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5222,7 +5219,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5233,7 +5230,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5255,7 +5252,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5277,7 +5274,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5288,7 +5285,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5365,7 +5362,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5376,7 +5373,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5387,7 +5384,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5409,7 +5406,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5431,7 +5428,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5442,7 +5439,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5453,7 +5450,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5486,7 +5483,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5508,7 +5505,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5519,7 +5516,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5530,7 +5527,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5541,7 +5538,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5552,7 +5549,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5563,7 +5560,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5585,7 +5582,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5596,7 +5593,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5618,7 +5615,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5640,7 +5637,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5651,7 +5648,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5662,7 +5659,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5706,7 +5703,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5717,7 +5714,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5750,7 +5747,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5783,7 +5780,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5838,7 +5835,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5849,7 +5846,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5871,7 +5868,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5882,7 +5879,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5904,7 +5901,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5970,7 +5967,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5992,7 +5989,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6003,7 +6000,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6025,7 +6022,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6080,7 +6077,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6102,7 +6099,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6157,7 +6154,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6168,7 +6165,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6179,7 +6176,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6190,7 +6187,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6201,7 +6198,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6212,7 +6209,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6267,7 +6264,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6289,7 +6286,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6300,7 +6297,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6333,7 +6330,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6344,7 +6341,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6388,7 +6385,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6421,7 +6418,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6432,7 +6429,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6465,7 +6462,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6476,7 +6473,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6509,7 +6506,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6520,7 +6517,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6531,7 +6528,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6564,7 +6561,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6608,7 +6605,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6663,7 +6660,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6784,7 +6781,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6839,7 +6836,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6850,7 +6847,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6883,7 +6880,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6894,7 +6891,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6905,7 +6902,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6927,7 +6924,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6938,7 +6935,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6949,7 +6946,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6960,7 +6957,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6971,7 +6968,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6982,7 +6979,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6993,7 +6990,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7004,7 +7001,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7037,7 +7034,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7059,7 +7056,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7081,7 +7078,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7103,7 +7100,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7158,7 +7155,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7213,7 +7210,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7224,7 +7221,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7235,7 +7232,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7290,7 +7287,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7301,7 +7298,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7312,7 +7309,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7323,7 +7320,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7334,7 +7331,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7345,7 +7342,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7367,7 +7364,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7389,7 +7386,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7466,7 +7463,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7499,7 +7496,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7532,7 +7529,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7565,7 +7562,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7598,7 +7595,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7620,7 +7617,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7642,7 +7639,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7664,7 +7661,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7675,7 +7672,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7697,7 +7694,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7708,7 +7705,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7807,7 +7804,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
